--- a/biology/Botanique/Hijiki/Hijiki.xlsx
+++ b/biology/Botanique/Hijiki/Hijiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sargassum fusiforme
-Le hijiki ou hiziki, Sargassum fusiforme, est une algue brune ressemblant à des nouilles noires. Elle est utilisée dans la cuisine japonaise, également cultivée et consommée en Corée et en Chine. Elle est introduite aussi dans l'alimentation macrobiotique aux Etats-Unis dans les soupes, les sandwichs, les salades, les crêpes ou en condiment. On peut la faire cuire à la vapeur, la faire sauter ou la faire mijoter[1]. 
+Le hijiki ou hiziki, Sargassum fusiforme, est une algue brune ressemblant à des nouilles noires. Elle est utilisée dans la cuisine japonaise, également cultivée et consommée en Corée et en Chine. Elle est introduite aussi dans l'alimentation macrobiotique aux Etats-Unis dans les soupes, les sandwichs, les salades, les crêpes ou en condiment. On peut la faire cuire à la vapeur, la faire sauter ou la faire mijoter. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hijikis séchées sont composées de 17 % d'eau, 5,6 % de protéines, 0,8 % de lipides, 29,8 % de glucides, 13 % de fibres et 34 % de minéraux.
 Elles contiennent différents polysaccharides. Leurs parois cellulaires structurelles contiennent de la chitine entourant la cellulose ; le mucilage intercellulaire est composé de fucoïdane et d'acide alginique ; enfin elles stockent du  laminarane (beta-1,3 glucane).
@@ -545,9 +559,11 @@
           <t>Récolte et consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie comestible de cette algue dendroïde est ébouillantée, puis séchée en plein vent. L'ébullition permet de dégager les tanins qui lui donnent un côté astringent. Le séchage provoque l'émiettement des feuilles en filament de type brindille. Au Japon, l'algue est couramment consommée, mais à moindre fréquence que d'autres espèces. En 1971, on relevait une consommation moyenne de 20 grammes par habitant, contre 208 grammes pour le nori, 320 grammes pour le kombu, et 972 grammes pour le wakamé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie comestible de cette algue dendroïde est ébouillantée, puis séchée en plein vent. L'ébullition permet de dégager les tanins qui lui donnent un côté astringent. Le séchage provoque l'émiettement des feuilles en filament de type brindille. Au Japon, l'algue est couramment consommée, mais à moindre fréquence que d'autres espèces. En 1971, on relevait une consommation moyenne de 20 grammes par habitant, contre 208 grammes pour le nori, 320 grammes pour le kombu, et 972 grammes pour le wakamé.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Mise en garde</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs agences gouvernementales recommandent aux consommateurs d'éviter de consommer le hijiki, dû à sa teneur sensiblement plus élevée en arsenic inorganique en comparaison avec les autres algues comestibles[3],[4]. En France, les hijikis ne font pas partie de la liste des algues autorisées à la consommation humaine[5] et leur commercialisation est officiellement destinée aux sels de bains.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs agences gouvernementales recommandent aux consommateurs d'éviter de consommer le hijiki, dû à sa teneur sensiblement plus élevée en arsenic inorganique en comparaison avec les autres algues comestibles,. En France, les hijikis ne font pas partie de la liste des algues autorisées à la consommation humaine et leur commercialisation est officiellement destinée aux sels de bains.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cystophyllum fusiforme Harv.
 Hizikia fusiformis (Harv.) Okamura
